--- a/_data/SOLUSDT_1d.xlsx
+++ b/_data/SOLUSDT_1d.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20421,6 +20421,186 @@
         <v>2435328.322</v>
       </c>
     </row>
+    <row r="1002" spans="1:6">
+      <c r="A1002" s="2">
+        <v>45532</v>
+      </c>
+      <c r="B1002">
+        <v>146.78</v>
+      </c>
+      <c r="C1002">
+        <v>149.3</v>
+      </c>
+      <c r="D1002">
+        <v>140.53</v>
+      </c>
+      <c r="E1002">
+        <v>143.95</v>
+      </c>
+      <c r="F1002">
+        <v>4270867.034</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6">
+      <c r="A1003" s="2">
+        <v>45533</v>
+      </c>
+      <c r="B1003">
+        <v>143.96</v>
+      </c>
+      <c r="C1003">
+        <v>147.36</v>
+      </c>
+      <c r="D1003">
+        <v>138.05</v>
+      </c>
+      <c r="E1003">
+        <v>140</v>
+      </c>
+      <c r="F1003">
+        <v>2921816.829</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6">
+      <c r="A1004" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B1004">
+        <v>140.01</v>
+      </c>
+      <c r="C1004">
+        <v>141.11</v>
+      </c>
+      <c r="D1004">
+        <v>132.04</v>
+      </c>
+      <c r="E1004">
+        <v>137.99</v>
+      </c>
+      <c r="F1004">
+        <v>4038797.169</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6">
+      <c r="A1005" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1005">
+        <v>137.99</v>
+      </c>
+      <c r="C1005">
+        <v>139.23</v>
+      </c>
+      <c r="D1005">
+        <v>134.49</v>
+      </c>
+      <c r="E1005">
+        <v>135.35</v>
+      </c>
+      <c r="F1005">
+        <v>1230210.745</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6">
+      <c r="A1006" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1006">
+        <v>135.35</v>
+      </c>
+      <c r="C1006">
+        <v>136.15</v>
+      </c>
+      <c r="D1006">
+        <v>127.66</v>
+      </c>
+      <c r="E1006">
+        <v>128.5</v>
+      </c>
+      <c r="F1006">
+        <v>2928444.741</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6">
+      <c r="A1007" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1007">
+        <v>128.5</v>
+      </c>
+      <c r="C1007">
+        <v>133.87</v>
+      </c>
+      <c r="D1007">
+        <v>126.8</v>
+      </c>
+      <c r="E1007">
+        <v>133.48</v>
+      </c>
+      <c r="F1007">
+        <v>2809338.206</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6">
+      <c r="A1008" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1008">
+        <v>134.95</v>
+      </c>
+      <c r="C1008">
+        <v>138.13</v>
+      </c>
+      <c r="D1008">
+        <v>127.15</v>
+      </c>
+      <c r="E1008">
+        <v>127.54</v>
+      </c>
+      <c r="F1008">
+        <v>2627381.925</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6">
+      <c r="A1009" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1009">
+        <v>127.54</v>
+      </c>
+      <c r="C1009">
+        <v>131.44</v>
+      </c>
+      <c r="D1009">
+        <v>122.6</v>
+      </c>
+      <c r="E1009">
+        <v>128.73</v>
+      </c>
+      <c r="F1009">
+        <v>2108012.323</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6">
+      <c r="A1010" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1010">
+        <v>133.64</v>
+      </c>
+      <c r="C1010">
+        <v>135.58</v>
+      </c>
+      <c r="D1010">
+        <v>127.85</v>
+      </c>
+      <c r="E1010">
+        <v>128.92</v>
+      </c>
+      <c r="F1010">
+        <v>2695231.045</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
